--- a/biology/Médecine/Maladie_multigénique/Maladie_multigénique.xlsx
+++ b/biology/Médecine/Maladie_multigénique/Maladie_multigénique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maladie_multig%C3%A9nique</t>
+          <t>Maladie_multigénique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une maladie multigénique est une maladie génétique pour laquelle plusieurs gènes sont impliqués dans son émergence.
-Les symptômes d'une maladie multigénique  peuvent ainsi apparaître chez deux patients qui présentent des mutations différentes (la mutation A ou la mutation B provoque la maladie). Ceci est différent d'une maladie polygénique qui est causée par plusieurs mutations concomitantes chez le même malade (la mutation A et la mutation B provoquent la maladie)[1].
+Les symptômes d'une maladie multigénique  peuvent ainsi apparaître chez deux patients qui présentent des mutations différentes (la mutation A ou la mutation B provoque la maladie). Ceci est différent d'une maladie polygénique qui est causée par plusieurs mutations concomitantes chez le même malade (la mutation A et la mutation B provoquent la maladie).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maladie_multig%C3%A9nique</t>
+          <t>Maladie_multigénique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La sclérose en plaques ;
-Le cancer[2].</t>
+Le cancer.</t>
         </is>
       </c>
     </row>
